--- a/static/result/ocpa_report.xlsx
+++ b/static/result/ocpa_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>日期</t>
   </si>
@@ -44,13 +44,7 @@
     <t>OCPA广告主个数</t>
   </si>
   <si>
-    <t>9.75%</t>
-  </si>
-  <si>
-    <t>19.55%</t>
-  </si>
-  <si>
-    <t>29.81%</t>
+    <t>6.54%</t>
   </si>
 </sst>
 </file>
@@ -389,7 +383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,80 +422,31 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
-        <v>43606</v>
+        <v>43693</v>
       </c>
       <c r="B2" t="n">
-        <v>179413</v>
+        <v>47344</v>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>31020.38</v>
+        <v>115522.86</v>
       </c>
       <c r="E2" t="n">
-        <v>446</v>
+        <v>4241</v>
       </c>
       <c r="F2" t="n">
-        <v>3027.57</v>
+        <v>7566.55</v>
       </c>
       <c r="G2" t="n">
-        <v>27992.81</v>
+        <v>107956.31</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="n">
-        <v>43605</v>
-      </c>
-      <c r="B3" t="n">
-        <v>446662</v>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>68255.57000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2188</v>
-      </c>
-      <c r="F3" t="n">
-        <v>13344.28</v>
-      </c>
-      <c r="G3" t="n">
-        <v>54911.29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="n">
-        <v>43604</v>
-      </c>
-      <c r="B4" t="n">
-        <v>400375</v>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96298.00999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5460</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28715.72</v>
-      </c>
-      <c r="G4" t="n">
-        <v>67582.28999999999</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
